--- a/results/mp/deberta/corona/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -109,18 +109,18 @@
     <t>positive</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
@@ -139,13 +139,13 @@
     <t>hand</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>community</t>
   </si>
   <si>
     <t>sure</t>
@@ -1361,25 +1361,25 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7324561403508771</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L18">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="M18">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1387,25 +1387,25 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7058823529411765</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1416,22 +1416,22 @@
         <v>0.7</v>
       </c>
       <c r="L20">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M20">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1439,25 +1439,25 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.7</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L21">
-        <v>70</v>
+        <v>167</v>
       </c>
       <c r="M21">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="N21">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1621,25 +1621,25 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.6073619631901841</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="N28">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1647,25 +1647,25 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.5869565217391305</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1673,25 +1673,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5869565217391305</v>
+        <v>0.5823529411764706</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>198</v>
       </c>
       <c r="N30">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="10:17">
